--- a/ig/TLSVObservation/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/TLSVObservation/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T15:44:28+00:00</t>
+    <t>2024-01-09T11:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/TLSVObservation/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/TLSVObservation/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T11:57:44+00:00</t>
+    <t>2024-02-22T09:02:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/TLSVObservation/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/TLSVObservation/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T09:02:06+00:00</t>
+    <t>2024-02-22T09:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
